--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1463040.417901698</v>
+        <v>1460788.338190491</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283208</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>96.42217904608263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>196.166992230856</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>41.95995423521121</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +832,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>236.0968754632975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814261</v>
+        <v>111.4702381038701</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>146.4252307625984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>165.1128120040343</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>22.05816311387025</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777587</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60.53208246928315</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3391137331274</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365876</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>38.05096575281172</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046993</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520935</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>44.30292280757602</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788181281</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>46.29306638367346</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.52295781333198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.60860312451688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>6.228861054224446</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187834</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176115</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979147</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1329.547110979147</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4398,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4522,16 +4522,16 @@
         <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1598.982398458852</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1309.565228421891</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="X4" t="n">
-        <v>1081.575677523874</v>
+        <v>1354.790051742116</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>1133.997472598586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8580214762837</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
         <v>530.5269660969217</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>594.6215500005598</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>425.6853670726529</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>275.5687276603171</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>127.655634077924</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>127.655634077924</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>127.655634077924</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>127.655634077924</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.2700148307995</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939072</v>
+        <v>409.1360811687887</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614396</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5255,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
@@ -5282,46 +5282,46 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176862</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970975</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934018</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944036</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797183</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745235</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>996.5276398439756</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>827.5914569160688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>677.474817503733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>529.5617239213399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1178.176104674215</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>282.2891673205955</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>140.5773361627936</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2399.970196900127</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2217.115362555031</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1997.513897577973</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1708.43867092217</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1708.43867092217</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6725,16 +6725,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438179</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793924</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7321,22 +7321,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32.90770736550047</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>180.5336875992831</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.54986409392849</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>101.1181252153552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194038</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>34.97276993489207</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.85228889678972</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24977,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>144.634190040853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864913</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919628.8599864908</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919628.859986491</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919628.8599864909</v>
+        <v>919628.859986491</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919628.8599864907</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919628.8599864908</v>
+        <v>919628.8599864909</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26317,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062539</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.624806254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26445,13 +26445,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>313643.2106506143</v>
       </c>
       <c r="D6" t="n">
-        <v>313643.2106506143</v>
+        <v>313643.2106506145</v>
       </c>
       <c r="E6" t="n">
-        <v>65544.71299317353</v>
+        <v>65509.97506773726</v>
       </c>
       <c r="F6" t="n">
-        <v>390957.1748005282</v>
+        <v>390922.436875093</v>
       </c>
       <c r="G6" t="n">
-        <v>390957.1748005289</v>
+        <v>390922.4368750928</v>
       </c>
       <c r="H6" t="n">
-        <v>390957.1748005283</v>
+        <v>390922.4368750931</v>
       </c>
       <c r="I6" t="n">
-        <v>390957.1748005285</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="J6" t="n">
-        <v>173425.972403251</v>
+        <v>173391.2344778154</v>
       </c>
       <c r="K6" t="n">
-        <v>390957.1748005287</v>
+        <v>390922.4368750929</v>
       </c>
       <c r="L6" t="n">
-        <v>390957.1748005286</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="M6" t="n">
-        <v>305902.1468650167</v>
+        <v>305867.408939581</v>
       </c>
       <c r="N6" t="n">
-        <v>390957.1748005283</v>
+        <v>390922.4368750927</v>
       </c>
       <c r="O6" t="n">
-        <v>390957.1748005284</v>
+        <v>390922.4368750928</v>
       </c>
       <c r="P6" t="n">
-        <v>390957.1748005285</v>
+        <v>390922.4368750929</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>285.5081910261791</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>54.82817972804597</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>137.8720259467261</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>16.04076786053048</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803264</v>
+        <v>258.2608625745989</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>20.8215903360294</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>60.59684338500287</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>332.6248785068127</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923762</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>35.82033794055494</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-4.040046806400437e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>220.7280629601522</v>
+        <v>305.1876769472499</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>388.5140139297707</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256862</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710403</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33260,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760394</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>332.169238832108</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745958</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>82.88662398579324</v>
+        <v>167.3462379728909</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>245.9177694853263</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>256.165419911356</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>242.0137592966813</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8925903961653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876636</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525775</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
